--- a/reports/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Month to Date (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -37,6 +37,21 @@
     <t>D1500</t>
   </si>
   <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>Rentals</t>
   </si>
   <si>
@@ -71,6 +86,12 @@
   </si>
   <si>
     <t>D5201</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
   </si>
   <si>
     <t>Purgy's</t>
@@ -445,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,8 +474,7 @@
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -482,103 +502,153 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>3808.8000</v>
+        <v>41094.7000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>2936.0500</v>
+        <v>1914.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>40.0000</v>
+        <v>1093.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>3020.9100</v>
+        <v>320.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>1432.8600</v>
+        <v>19542.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>157.4400</v>
+        <v>4569.3200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>2012.6900</v>
+        <v>27591.0900</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>1462.0900</v>
+        <v>8903.5800</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4186.4800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2">
-        <v>767.1000</v>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15371.0500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20.0000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21875.0300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7943.1500</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Month to Date (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,79 +31,79 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -466,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>41094.7000</v>
+        <v>-336.7800</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -516,139 +516,171 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1914.0000</v>
+        <v>18.7000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>1093.0000</v>
+        <v>-120.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>320.0000</v>
+        <v>43749.4800</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>19542.0000</v>
+        <v>758503.9600</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>4569.3200</v>
+        <v>-17.9600</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>27591.0900</v>
+        <v>78657.5000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>8903.5800</v>
+        <v>218713.4700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>4186.4800</v>
+        <v>78772.8500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>15371.0500</v>
+        <v>27.5900</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>20.0000</v>
+        <v>80919.2400</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>21875.0300</v>
+        <v>95853.4900</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7468.2900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5394.2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2">
-        <v>7943.1500</v>
+      <c r="D16" s="2">
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Month to Date (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,79 +31,79 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T104                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T257                     </t>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4034                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5113                    </t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8010                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -466,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-336.7800</v>
+        <v>41094.7000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -516,171 +516,139 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>18.7000</v>
+        <v>1914.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>-120.0000</v>
+        <v>1093.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>43749.4800</v>
+        <v>320.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>758503.9600</v>
+        <v>19542.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>-17.9600</v>
+        <v>4569.3200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>78657.5000</v>
+        <v>27591.0900</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>218713.4700</v>
+        <v>8903.5800</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>78772.8500</v>
+        <v>4186.4800</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>27.5900</v>
+        <v>15371.0500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
-        <v>80919.2400</v>
+        <v>20.0000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>95853.4900</v>
+        <v>21719.8900</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>7468.2900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5394.2400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.0100</v>
+        <v>7943.1500</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Month to Date (Actual)_Revenue.xlsx
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>41094.7000</v>
+        <v>44320.5500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>1093.0000</v>
+        <v>1491.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -552,7 +552,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>19542.0000</v>
+        <v>22023.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>4569.3200</v>
+        <v>4877.3200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -576,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>27591.0900</v>
+        <v>29267.5100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -588,7 +588,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>8903.5800</v>
+        <v>9673.5700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -600,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>4186.4800</v>
+        <v>4717.1300</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -612,7 +612,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>15371.0500</v>
+        <v>16003.6100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -624,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="2">
-        <v>20.0000</v>
+        <v>40.0000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -636,7 +636,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>21719.8900</v>
+        <v>23691.7200</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -648,7 +648,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>7943.1500</v>
+        <v>8564.8000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Month to Date (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,79 +31,79 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -466,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>44320.5500</v>
+        <v>-381.7800</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -516,139 +516,171 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1914.0000</v>
+        <v>18.7000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>1491.0000</v>
+        <v>-120.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>320.0000</v>
+        <v>797163.8100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>22023.0000</v>
+        <v>3.0400</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>4877.3200</v>
+        <v>45767.2700</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>29267.5100</v>
+        <v>83069.5000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>9673.5700</v>
+        <v>232788.5200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>4717.1300</v>
+        <v>86014.9900</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>16003.6100</v>
+        <v>27.5900</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>40.0000</v>
+        <v>89082.2500</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>23691.7200</v>
+        <v>106176.2800</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8046.8400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6110.1100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2">
-        <v>8564.8000</v>
+      <c r="D16" s="2">
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Month to Date (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,79 +31,76 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -466,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -495,14 +492,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>49729.5500</v>
+        <v>-471.7800</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -510,145 +505,177 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>1914.0000</v>
+        <v>37.4000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>5484.0000</v>
+        <v>-120.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>320.0000</v>
+        <v>837646.8900</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>28080.0000</v>
+        <v>3.0400</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>5207.8200</v>
+        <v>47450.1500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>31323.5400</v>
+        <v>92007.5000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>10530.4400</v>
+        <v>249968.4900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>5456.4900</v>
+        <v>94073.2700</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>17266.2700</v>
+        <v>35.0700</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>120.0000</v>
+        <v>96379.4500</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>27126.1200</v>
+        <v>120996.2000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>9201.5400</v>
+        <v>8883.8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6713.8100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Month to Date (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,76 +31,85 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T104                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T257                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4034                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5113                    </t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8010                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4054                    </t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -463,15 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -492,12 +502,14 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-471.7800</v>
+        <v>97474.3000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -505,177 +517,157 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2">
-        <v>37.4000</v>
+        <v>7018.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>-120.0000</v>
+        <v>18832.5000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>837646.8900</v>
+        <v>1120.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>3.0400</v>
+        <v>49234.5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>47450.1500</v>
+        <v>9641.9900</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>92007.5000</v>
+        <v>46617.7400</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>249968.4900</v>
+        <v>14593.9300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>94073.2700</v>
+        <v>8569.8000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>35.0700</v>
+        <v>26900.9800</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
-        <v>96379.4500</v>
+        <v>999.6500</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>120996.2000</v>
+        <v>280.0000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>8883.8000</v>
+        <v>47348.9800</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
-        <v>6713.8100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.0100</v>
+        <v>14766.6100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Month to Date (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,85 +31,76 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4054                    </t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5113                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -472,16 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -502,14 +492,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>97474.3000</v>
+        <v>-556.7500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -517,157 +505,177 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>7018.0000</v>
+        <v>37.4000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>18832.5000</v>
+        <v>-120.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>1120.0000</v>
+        <v>72580.2900</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>49234.5000</v>
+        <v>1141264.4900</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>9641.9900</v>
+        <v>3.0400</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>46617.7400</v>
+        <v>134939.2500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>14593.9300</v>
+        <v>351059.1900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>8569.8000</v>
+        <v>128924.0500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>26900.9800</v>
+        <v>50.1300</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>999.6500</v>
+        <v>129509.4600</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>280.0000</v>
+        <v>199573.3800</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>47348.9800</v>
+        <v>12458.3200</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
-        <v>14766.6100</v>
+        <v>11806.0200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.0100</v>
       </c>
     </row>
   </sheetData>
